--- a/ol-handback/OpenLocalizationOrg/hyperV/live/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/live/localization-status.xlsx
@@ -838,7 +838,7 @@
     <t>2015-12-28 02:56:02</t>
   </si>
   <si>
-    <t>2016-02-22 08:56:57</t>
+    <t>2016-02-22 08:57:25</t>
   </si>
   <si>
     <t>Include</t>
@@ -1219,7 +1219,7 @@
     <t>2015-12-28 02:56:33</t>
   </si>
   <si>
-    <t>2016-02-22 08:57:07</t>
+    <t>2016-02-22 08:57:33</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationOrg/hyperV/live/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationOrg/hyperV/live/localization-status.xlsx
@@ -838,7 +838,7 @@
     <t>2015-12-28 02:56:02</t>
   </si>
   <si>
-    <t>2016-02-22 08:57:25</t>
+    <t>2016-02-22 08:57:51</t>
   </si>
   <si>
     <t>Include</t>
@@ -1219,7 +1219,7 @@
     <t>2015-12-28 02:56:33</t>
   </si>
   <si>
-    <t>2016-02-22 08:57:33</t>
+    <t>2016-02-22 08:57:59</t>
   </si>
   <si>
     <t>TOC.4885638d0b97b11bc739bfa927a9ccebda99114f.de-de.xlf</t>
